--- a/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:30:33+00:00</t>
+    <t>2023-02-15T19:34:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T19:34:16+00:00</t>
+    <t>2023-02-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:15:00+00:00</t>
+    <t>2023-02-16T13:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/ARVTreatment-Date-Patient-Refused-HIV-Treatment--FIG51/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:21:24+00:00</t>
+    <t>2023-02-16T13:29:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
